--- a/natmiOut/OldD4/LR-pairs_lrc2p/Jag1-Notch1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Jag1-Notch1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>13.3367393597003</v>
+        <v>14.52425533333333</v>
       </c>
       <c r="H2">
-        <v>13.3367393597003</v>
+        <v>43.572766</v>
       </c>
       <c r="I2">
-        <v>0.1998174976316041</v>
+        <v>0.2093406766457121</v>
       </c>
       <c r="J2">
-        <v>0.1998174976316041</v>
+        <v>0.2513957970825711</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>53.7368122527561</v>
+        <v>56.01527666666667</v>
       </c>
       <c r="N2">
-        <v>53.7368122527561</v>
+        <v>168.04583</v>
       </c>
       <c r="O2">
-        <v>0.4899202373741286</v>
+        <v>0.4883616647765734</v>
       </c>
       <c r="P2">
-        <v>0.4899202373741286</v>
+        <v>0.5237161609491596</v>
       </c>
       <c r="Q2">
-        <v>716.6738590361576</v>
+        <v>813.5801808739756</v>
       </c>
       <c r="R2">
-        <v>716.6738590361576</v>
+        <v>7322.22162786578</v>
       </c>
       <c r="S2">
-        <v>0.09789463587117986</v>
+        <v>0.1022339613521543</v>
       </c>
       <c r="T2">
-        <v>0.09789463587117986</v>
+        <v>0.1316600417268381</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>13.3367393597003</v>
+        <v>14.52425533333333</v>
       </c>
       <c r="H3">
-        <v>13.3367393597003</v>
+        <v>43.572766</v>
       </c>
       <c r="I3">
-        <v>0.1998174976316041</v>
+        <v>0.2093406766457121</v>
       </c>
       <c r="J3">
-        <v>0.1998174976316041</v>
+        <v>0.2513957970825711</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.078403595828309</v>
+        <v>9.149483999999999</v>
       </c>
       <c r="N3">
-        <v>8.078403595828309</v>
+        <v>27.448452</v>
       </c>
       <c r="O3">
-        <v>0.07365106416540794</v>
+        <v>0.0797685471532371</v>
       </c>
       <c r="P3">
-        <v>0.07365106416540794</v>
+        <v>0.08554331818550501</v>
       </c>
       <c r="Q3">
-        <v>107.7395632000278</v>
+        <v>132.889441784248</v>
       </c>
       <c r="R3">
-        <v>107.7395632000278</v>
+        <v>1196.004976058232</v>
       </c>
       <c r="S3">
-        <v>0.01471677133943652</v>
+        <v>0.01669880163610404</v>
       </c>
       <c r="T3">
-        <v>0.01471677133943652</v>
+        <v>0.02150523066033303</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>13.3367393597003</v>
+        <v>14.52425533333333</v>
       </c>
       <c r="H4">
-        <v>13.3367393597003</v>
+        <v>43.572766</v>
       </c>
       <c r="I4">
-        <v>0.1998174976316041</v>
+        <v>0.2093406766457121</v>
       </c>
       <c r="J4">
-        <v>0.1998174976316041</v>
+        <v>0.2513957970825711</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>10.4870230256977</v>
+        <v>12.129045</v>
       </c>
       <c r="N4">
-        <v>10.4870230256977</v>
+        <v>36.387135</v>
       </c>
       <c r="O4">
-        <v>0.09561052460521154</v>
+        <v>0.1057454494708373</v>
       </c>
       <c r="P4">
-        <v>0.09561052460521154</v>
+        <v>0.1134007945935868</v>
       </c>
       <c r="Q4">
-        <v>139.8626927529058</v>
+        <v>176.16534652949</v>
       </c>
       <c r="R4">
-        <v>139.8626927529058</v>
+        <v>1585.48811876541</v>
       </c>
       <c r="S4">
-        <v>0.01910465577385828</v>
+        <v>0.02213682394443004</v>
       </c>
       <c r="T4">
-        <v>0.01910465577385828</v>
+        <v>0.02850848314665166</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>13.3367393597003</v>
+        <v>14.52425533333333</v>
       </c>
       <c r="H5">
-        <v>13.3367393597003</v>
+        <v>43.572766</v>
       </c>
       <c r="I5">
-        <v>0.1998174976316041</v>
+        <v>0.2093406766457121</v>
       </c>
       <c r="J5">
-        <v>0.1998174976316041</v>
+        <v>0.2513957970825711</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>14.1757231483377</v>
+        <v>14.177359</v>
       </c>
       <c r="N5">
-        <v>14.1757231483377</v>
+        <v>42.532077</v>
       </c>
       <c r="O5">
-        <v>0.129240521695206</v>
+        <v>0.1236033999184949</v>
       </c>
       <c r="P5">
-        <v>0.129240521695206</v>
+        <v>0.1325515550349214</v>
       </c>
       <c r="Q5">
-        <v>189.0579248646501</v>
+        <v>205.9155820683314</v>
       </c>
       <c r="R5">
-        <v>189.0579248646501</v>
+        <v>1853.240238614982</v>
       </c>
       <c r="S5">
-        <v>0.0258245176377391</v>
+        <v>0.02587521937464828</v>
       </c>
       <c r="T5">
-        <v>0.0258245176377391</v>
+        <v>0.03332290383253837</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>13.3367393597003</v>
+        <v>14.52425533333333</v>
       </c>
       <c r="H6">
-        <v>13.3367393597003</v>
+        <v>43.572766</v>
       </c>
       <c r="I6">
-        <v>0.1998174976316041</v>
+        <v>0.2093406766457121</v>
       </c>
       <c r="J6">
-        <v>0.1998174976316041</v>
+        <v>0.2513957970825711</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.2068563485794</v>
+        <v>23.229232</v>
       </c>
       <c r="N6">
-        <v>23.2068563485794</v>
+        <v>46.458464</v>
       </c>
       <c r="O6">
-        <v>0.2115776521600459</v>
+        <v>0.2025209386808572</v>
       </c>
       <c r="P6">
-        <v>0.2115776521600459</v>
+        <v>0.1447881712368271</v>
       </c>
       <c r="Q6">
-        <v>309.5037944790097</v>
+        <v>337.3872967652374</v>
       </c>
       <c r="R6">
-        <v>309.5037944790097</v>
+        <v>2024.323780591424</v>
       </c>
       <c r="S6">
-        <v>0.04227691700939033</v>
+        <v>0.04239587033837541</v>
       </c>
       <c r="T6">
-        <v>0.04227691700939033</v>
+        <v>0.03639913771620994</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>12.2370954680494</v>
+        <v>13.149005</v>
       </c>
       <c r="H7">
-        <v>12.2370954680494</v>
+        <v>39.447015</v>
       </c>
       <c r="I7">
-        <v>0.1833420995009699</v>
+        <v>0.1895189488717231</v>
       </c>
       <c r="J7">
-        <v>0.1833420995009699</v>
+        <v>0.2275920187957115</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>53.7368122527561</v>
+        <v>56.01527666666667</v>
       </c>
       <c r="N7">
-        <v>53.7368122527561</v>
+        <v>168.04583</v>
       </c>
       <c r="O7">
-        <v>0.4899202373741286</v>
+        <v>0.4883616647765734</v>
       </c>
       <c r="P7">
-        <v>0.4899202373741286</v>
+        <v>0.5237161609491596</v>
       </c>
       <c r="Q7">
-        <v>657.5825016856231</v>
+        <v>736.5451529663834</v>
       </c>
       <c r="R7">
-        <v>657.5825016856231</v>
+        <v>6628.90637669745</v>
       </c>
       <c r="S7">
-        <v>0.08982300490818629</v>
+        <v>0.09255378937770099</v>
       </c>
       <c r="T7">
-        <v>0.08982300490818629</v>
+        <v>0.119193618346359</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>12.2370954680494</v>
+        <v>13.149005</v>
       </c>
       <c r="H8">
-        <v>12.2370954680494</v>
+        <v>39.447015</v>
       </c>
       <c r="I8">
-        <v>0.1833420995009699</v>
+        <v>0.1895189488717231</v>
       </c>
       <c r="J8">
-        <v>0.1833420995009699</v>
+        <v>0.2275920187957115</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.078403595828309</v>
+        <v>9.149483999999999</v>
       </c>
       <c r="N8">
-        <v>8.078403595828309</v>
+        <v>27.448452</v>
       </c>
       <c r="O8">
-        <v>0.07365106416540794</v>
+        <v>0.0797685471532371</v>
       </c>
       <c r="P8">
-        <v>0.07365106416540794</v>
+        <v>0.08554331818550501</v>
       </c>
       <c r="Q8">
-        <v>98.85619603158457</v>
+        <v>120.30661086342</v>
       </c>
       <c r="R8">
-        <v>98.85619603158457</v>
+        <v>1082.75949777078</v>
       </c>
       <c r="S8">
-        <v>0.01350334073456654</v>
+        <v>0.01511765120950597</v>
       </c>
       <c r="T8">
-        <v>0.01350334073456654</v>
+        <v>0.01946897648032298</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>12.2370954680494</v>
+        <v>13.149005</v>
       </c>
       <c r="H9">
-        <v>12.2370954680494</v>
+        <v>39.447015</v>
       </c>
       <c r="I9">
-        <v>0.1833420995009699</v>
+        <v>0.1895189488717231</v>
       </c>
       <c r="J9">
-        <v>0.1833420995009699</v>
+        <v>0.2275920187957115</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.4870230256977</v>
+        <v>12.129045</v>
       </c>
       <c r="N9">
-        <v>10.4870230256977</v>
+        <v>36.387135</v>
       </c>
       <c r="O9">
-        <v>0.09561052460521154</v>
+        <v>0.1057454494708373</v>
       </c>
       <c r="P9">
-        <v>0.09561052460521154</v>
+        <v>0.1134007945935868</v>
       </c>
       <c r="Q9">
-        <v>128.330701941095</v>
+        <v>159.484873350225</v>
       </c>
       <c r="R9">
-        <v>128.330701941095</v>
+        <v>1435.363860152025</v>
       </c>
       <c r="S9">
-        <v>0.01752943431550863</v>
+        <v>0.020040766431681</v>
       </c>
       <c r="T9">
-        <v>0.01752943431550863</v>
+        <v>0.02580911577459221</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>12.2370954680494</v>
+        <v>13.149005</v>
       </c>
       <c r="H10">
-        <v>12.2370954680494</v>
+        <v>39.447015</v>
       </c>
       <c r="I10">
-        <v>0.1833420995009699</v>
+        <v>0.1895189488717231</v>
       </c>
       <c r="J10">
-        <v>0.1833420995009699</v>
+        <v>0.2275920187957115</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>14.1757231483377</v>
+        <v>14.177359</v>
       </c>
       <c r="N10">
-        <v>14.1757231483377</v>
+        <v>42.532077</v>
       </c>
       <c r="O10">
-        <v>0.129240521695206</v>
+        <v>0.1236033999184949</v>
       </c>
       <c r="P10">
-        <v>0.129240521695206</v>
+        <v>0.1325515550349214</v>
       </c>
       <c r="Q10">
-        <v>173.4696774948463</v>
+        <v>186.418164377795</v>
       </c>
       <c r="R10">
-        <v>173.4696774948463</v>
+        <v>1677.763479400155</v>
       </c>
       <c r="S10">
-        <v>0.02369522858819972</v>
+        <v>0.02342518642952438</v>
       </c>
       <c r="T10">
-        <v>0.02369522858819972</v>
+        <v>0.03016767600490863</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>12.2370954680494</v>
+        <v>13.149005</v>
       </c>
       <c r="H11">
-        <v>12.2370954680494</v>
+        <v>39.447015</v>
       </c>
       <c r="I11">
-        <v>0.1833420995009699</v>
+        <v>0.1895189488717231</v>
       </c>
       <c r="J11">
-        <v>0.1833420995009699</v>
+        <v>0.2275920187957115</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>23.2068563485794</v>
+        <v>23.229232</v>
       </c>
       <c r="N11">
-        <v>23.2068563485794</v>
+        <v>46.458464</v>
       </c>
       <c r="O11">
-        <v>0.2115776521600459</v>
+        <v>0.2025209386808572</v>
       </c>
       <c r="P11">
-        <v>0.2115776521600459</v>
+        <v>0.1447881712368271</v>
       </c>
       <c r="Q11">
-        <v>283.9845166508744</v>
+        <v>305.44128771416</v>
       </c>
       <c r="R11">
-        <v>283.9845166508744</v>
+        <v>1832.64772628496</v>
       </c>
       <c r="S11">
-        <v>0.03879109095450874</v>
+        <v>0.03838155542331075</v>
       </c>
       <c r="T11">
-        <v>0.03879109095450874</v>
+        <v>0.03295263218952865</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.02363054814024</v>
+        <v>3.309793666666666</v>
       </c>
       <c r="H12">
-        <v>3.02363054814024</v>
+        <v>9.929380999999999</v>
       </c>
       <c r="I12">
-        <v>0.04530149938428692</v>
+        <v>0.04770464508066981</v>
       </c>
       <c r="J12">
-        <v>0.04530149938428692</v>
+        <v>0.05728818434504563</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>53.7368122527561</v>
+        <v>56.01527666666667</v>
       </c>
       <c r="N12">
-        <v>53.7368122527561</v>
+        <v>168.04583</v>
       </c>
       <c r="O12">
-        <v>0.4899202373741286</v>
+        <v>0.4883616647765734</v>
       </c>
       <c r="P12">
-        <v>0.4899202373741286</v>
+        <v>0.5237161609491596</v>
       </c>
       <c r="Q12">
-        <v>162.4802670871101</v>
+        <v>185.3990079479144</v>
       </c>
       <c r="R12">
-        <v>162.4802670871101</v>
+        <v>1668.59107153123</v>
       </c>
       <c r="S12">
-        <v>0.02219412133175379</v>
+        <v>0.02329711988917148</v>
       </c>
       <c r="T12">
-        <v>0.02219412133175379</v>
+        <v>0.03000274797293504</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.02363054814024</v>
+        <v>3.309793666666666</v>
       </c>
       <c r="H13">
-        <v>3.02363054814024</v>
+        <v>9.929380999999999</v>
       </c>
       <c r="I13">
-        <v>0.04530149938428692</v>
+        <v>0.04770464508066981</v>
       </c>
       <c r="J13">
-        <v>0.04530149938428692</v>
+        <v>0.05728818434504563</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.078403595828309</v>
+        <v>9.149483999999999</v>
       </c>
       <c r="N13">
-        <v>8.078403595828309</v>
+        <v>27.448452</v>
       </c>
       <c r="O13">
-        <v>0.07365106416540794</v>
+        <v>0.0797685471532371</v>
       </c>
       <c r="P13">
-        <v>0.07365106416540794</v>
+        <v>0.08554331818550501</v>
       </c>
       <c r="Q13">
-        <v>24.42610789255244</v>
+        <v>30.282904196468</v>
       </c>
       <c r="R13">
-        <v>24.42610789255244</v>
+        <v>272.546137768212</v>
       </c>
       <c r="S13">
-        <v>0.003336503637941304</v>
+        <v>0.00380533023054585</v>
       </c>
       <c r="T13">
-        <v>0.003336503637941304</v>
+        <v>0.004900621381698105</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.02363054814024</v>
+        <v>3.309793666666666</v>
       </c>
       <c r="H14">
-        <v>3.02363054814024</v>
+        <v>9.929380999999999</v>
       </c>
       <c r="I14">
-        <v>0.04530149938428692</v>
+        <v>0.04770464508066981</v>
       </c>
       <c r="J14">
-        <v>0.04530149938428692</v>
+        <v>0.05728818434504563</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>10.4870230256977</v>
+        <v>12.129045</v>
       </c>
       <c r="N14">
-        <v>10.4870230256977</v>
+        <v>36.387135</v>
       </c>
       <c r="O14">
-        <v>0.09561052460521154</v>
+        <v>0.1057454494708373</v>
       </c>
       <c r="P14">
-        <v>0.09561052460521154</v>
+        <v>0.1134007945935868</v>
       </c>
       <c r="Q14">
-        <v>31.70888317954966</v>
+        <v>40.14463632371499</v>
       </c>
       <c r="R14">
-        <v>31.70888317954966</v>
+        <v>361.301726913435</v>
       </c>
       <c r="S14">
-        <v>0.00433130012153434</v>
+        <v>0.005044549135902199</v>
       </c>
       <c r="T14">
-        <v>0.00433130012153434</v>
+        <v>0.006496525625552052</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.02363054814024</v>
+        <v>3.309793666666666</v>
       </c>
       <c r="H15">
-        <v>3.02363054814024</v>
+        <v>9.929380999999999</v>
       </c>
       <c r="I15">
-        <v>0.04530149938428692</v>
+        <v>0.04770464508066981</v>
       </c>
       <c r="J15">
-        <v>0.04530149938428692</v>
+        <v>0.05728818434504563</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>14.1757231483377</v>
+        <v>14.177359</v>
       </c>
       <c r="N15">
-        <v>14.1757231483377</v>
+        <v>42.532077</v>
       </c>
       <c r="O15">
-        <v>0.129240521695206</v>
+        <v>0.1236033999184949</v>
       </c>
       <c r="P15">
-        <v>0.129240521695206</v>
+        <v>0.1325515550349214</v>
       </c>
       <c r="Q15">
-        <v>42.86214955329261</v>
+        <v>46.92413302825967</v>
       </c>
       <c r="R15">
-        <v>42.86214955329261</v>
+        <v>422.317197254337</v>
       </c>
       <c r="S15">
-        <v>0.005854789414000295</v>
+        <v>0.005896456323875893</v>
       </c>
       <c r="T15">
-        <v>0.005854789414000295</v>
+        <v>0.007593637920063041</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.02363054814024</v>
+        <v>3.309793666666666</v>
       </c>
       <c r="H16">
-        <v>3.02363054814024</v>
+        <v>9.929380999999999</v>
       </c>
       <c r="I16">
-        <v>0.04530149938428692</v>
+        <v>0.04770464508066981</v>
       </c>
       <c r="J16">
-        <v>0.04530149938428692</v>
+        <v>0.05728818434504563</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>23.2068563485794</v>
+        <v>23.229232</v>
       </c>
       <c r="N16">
-        <v>23.2068563485794</v>
+        <v>46.458464</v>
       </c>
       <c r="O16">
-        <v>0.2115776521600459</v>
+        <v>0.2025209386808572</v>
       </c>
       <c r="P16">
-        <v>0.2115776521600459</v>
+        <v>0.1447881712368271</v>
       </c>
       <c r="Q16">
-        <v>70.16895978186695</v>
+        <v>76.88396495513065</v>
       </c>
       <c r="R16">
-        <v>70.16895978186695</v>
+        <v>461.303789730784</v>
       </c>
       <c r="S16">
-        <v>0.009584784879057191</v>
+        <v>0.009661189501174389</v>
       </c>
       <c r="T16">
-        <v>0.009584784879057191</v>
+        <v>0.008294651444797385</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.44559127623566</v>
+        <v>3.578409999999999</v>
       </c>
       <c r="H17">
-        <v>3.44559127623566</v>
+        <v>10.73523</v>
       </c>
       <c r="I17">
-        <v>0.05162351967071555</v>
+        <v>0.05157626009208015</v>
       </c>
       <c r="J17">
-        <v>0.05162351967071555</v>
+        <v>0.06193758052253853</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>53.7368122527561</v>
+        <v>56.01527666666667</v>
       </c>
       <c r="N17">
-        <v>53.7368122527561</v>
+        <v>168.04583</v>
       </c>
       <c r="O17">
-        <v>0.4899202373741286</v>
+        <v>0.4883616647765734</v>
       </c>
       <c r="P17">
-        <v>0.4899202373741286</v>
+        <v>0.5237161609491596</v>
       </c>
       <c r="Q17">
-        <v>185.1550915108099</v>
+        <v>200.4456261767666</v>
       </c>
       <c r="R17">
-        <v>185.1550915108099</v>
+        <v>1804.010635590899</v>
       </c>
       <c r="S17">
-        <v>0.02529140701116496</v>
+        <v>0.02518786824151781</v>
       </c>
       <c r="T17">
-        <v>0.02529140701116496</v>
+        <v>0.03243771188974332</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.44559127623566</v>
+        <v>3.578409999999999</v>
       </c>
       <c r="H18">
-        <v>3.44559127623566</v>
+        <v>10.73523</v>
       </c>
       <c r="I18">
-        <v>0.05162351967071555</v>
+        <v>0.05157626009208015</v>
       </c>
       <c r="J18">
-        <v>0.05162351967071555</v>
+        <v>0.06193758052253853</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.078403595828309</v>
+        <v>9.149483999999999</v>
       </c>
       <c r="N18">
-        <v>8.078403595828309</v>
+        <v>27.448452</v>
       </c>
       <c r="O18">
-        <v>0.07365106416540794</v>
+        <v>0.0797685471532371</v>
       </c>
       <c r="P18">
-        <v>0.07365106416540794</v>
+        <v>0.08554331818550501</v>
       </c>
       <c r="Q18">
-        <v>27.83487695569681</v>
+        <v>32.74060504043999</v>
       </c>
       <c r="R18">
-        <v>27.83487695569681</v>
+        <v>294.6654453639599</v>
       </c>
       <c r="S18">
-        <v>0.00380212715971207</v>
+        <v>0.004114163335142716</v>
       </c>
       <c r="T18">
-        <v>0.00380212715971207</v>
+        <v>0.005298346158279851</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.44559127623566</v>
+        <v>3.578409999999999</v>
       </c>
       <c r="H19">
-        <v>3.44559127623566</v>
+        <v>10.73523</v>
       </c>
       <c r="I19">
-        <v>0.05162351967071555</v>
+        <v>0.05157626009208015</v>
       </c>
       <c r="J19">
-        <v>0.05162351967071555</v>
+        <v>0.06193758052253853</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>10.4870230256977</v>
+        <v>12.129045</v>
       </c>
       <c r="N19">
-        <v>10.4870230256977</v>
+        <v>36.387135</v>
       </c>
       <c r="O19">
-        <v>0.09561052460521154</v>
+        <v>0.1057454494708373</v>
       </c>
       <c r="P19">
-        <v>0.09561052460521154</v>
+        <v>0.1134007945935868</v>
       </c>
       <c r="Q19">
-        <v>36.1339950510265</v>
+        <v>43.40269591844999</v>
       </c>
       <c r="R19">
-        <v>36.1339950510265</v>
+        <v>390.6242632660499</v>
       </c>
       <c r="S19">
-        <v>0.004935751797684571</v>
+        <v>0.005453954805461827</v>
       </c>
       <c r="T19">
-        <v>0.004935751797684571</v>
+        <v>0.007023770846460132</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.44559127623566</v>
+        <v>3.578409999999999</v>
       </c>
       <c r="H20">
-        <v>3.44559127623566</v>
+        <v>10.73523</v>
       </c>
       <c r="I20">
-        <v>0.05162351967071555</v>
+        <v>0.05157626009208015</v>
       </c>
       <c r="J20">
-        <v>0.05162351967071555</v>
+        <v>0.06193758052253853</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.1757231483377</v>
+        <v>14.177359</v>
       </c>
       <c r="N20">
-        <v>14.1757231483377</v>
+        <v>42.532077</v>
       </c>
       <c r="O20">
-        <v>0.129240521695206</v>
+        <v>0.1236033999184949</v>
       </c>
       <c r="P20">
-        <v>0.129240521695206</v>
+        <v>0.1325515550349214</v>
       </c>
       <c r="Q20">
-        <v>48.84374801424428</v>
+        <v>50.73240321919</v>
       </c>
       <c r="R20">
-        <v>48.84374801424428</v>
+        <v>456.5916289727099</v>
       </c>
       <c r="S20">
-        <v>0.006671850613986007</v>
+        <v>0.006375001102461693</v>
       </c>
       <c r="T20">
-        <v>0.006671850613986007</v>
+        <v>0.008209922613363143</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.44559127623566</v>
+        <v>3.578409999999999</v>
       </c>
       <c r="H21">
-        <v>3.44559127623566</v>
+        <v>10.73523</v>
       </c>
       <c r="I21">
-        <v>0.05162351967071555</v>
+        <v>0.05157626009208015</v>
       </c>
       <c r="J21">
-        <v>0.05162351967071555</v>
+        <v>0.06193758052253853</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>23.2068563485794</v>
+        <v>23.229232</v>
       </c>
       <c r="N21">
-        <v>23.2068563485794</v>
+        <v>46.458464</v>
       </c>
       <c r="O21">
-        <v>0.2115776521600459</v>
+        <v>0.2025209386808572</v>
       </c>
       <c r="P21">
-        <v>0.2115776521600459</v>
+        <v>0.1447881712368271</v>
       </c>
       <c r="Q21">
-        <v>79.96134178351933</v>
+        <v>83.12371608111998</v>
       </c>
       <c r="R21">
-        <v>79.96134178351933</v>
+        <v>498.7422964867199</v>
       </c>
       <c r="S21">
-        <v>0.01092238308816794</v>
+        <v>0.01044527260749611</v>
       </c>
       <c r="T21">
-        <v>0.01092238308816794</v>
+        <v>0.008967829014692076</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>34.701545386124</v>
+        <v>34.8194875</v>
       </c>
       <c r="H22">
-        <v>34.701545386124</v>
+        <v>69.638975</v>
       </c>
       <c r="I22">
-        <v>0.5199153838124234</v>
+        <v>0.5018594693098147</v>
       </c>
       <c r="J22">
-        <v>0.5199153838124234</v>
+        <v>0.4017864192541332</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>53.7368122527561</v>
+        <v>56.01527666666667</v>
       </c>
       <c r="N22">
-        <v>53.7368122527561</v>
+        <v>168.04583</v>
       </c>
       <c r="O22">
-        <v>0.4899202373741286</v>
+        <v>0.4883616647765734</v>
       </c>
       <c r="P22">
-        <v>0.4899202373741286</v>
+        <v>0.5237161609491596</v>
       </c>
       <c r="Q22">
-        <v>1864.75042929464</v>
+        <v>1950.423225704042</v>
       </c>
       <c r="R22">
-        <v>1864.75042929464</v>
+        <v>11702.53935422425</v>
       </c>
       <c r="S22">
-        <v>0.2547170682518436</v>
+        <v>0.2450889259160288</v>
       </c>
       <c r="T22">
-        <v>0.2547170682518436</v>
+        <v>0.2104220410132842</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>34.701545386124</v>
+        <v>34.8194875</v>
       </c>
       <c r="H23">
-        <v>34.701545386124</v>
+        <v>69.638975</v>
       </c>
       <c r="I23">
-        <v>0.5199153838124234</v>
+        <v>0.5018594693098147</v>
       </c>
       <c r="J23">
-        <v>0.5199153838124234</v>
+        <v>0.4017864192541332</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.078403595828309</v>
+        <v>9.149483999999999</v>
       </c>
       <c r="N23">
-        <v>8.078403595828309</v>
+        <v>27.448452</v>
       </c>
       <c r="O23">
-        <v>0.07365106416540794</v>
+        <v>0.0797685471532371</v>
       </c>
       <c r="P23">
-        <v>0.07365106416540794</v>
+        <v>0.08554331818550501</v>
       </c>
       <c r="Q23">
-        <v>280.3330890280634</v>
+        <v>318.58034376945</v>
       </c>
       <c r="R23">
-        <v>280.3330890280634</v>
+        <v>1911.4820626167</v>
       </c>
       <c r="S23">
-        <v>0.03829232129375149</v>
+        <v>0.04003260074193851</v>
       </c>
       <c r="T23">
-        <v>0.03829232129375149</v>
+        <v>0.03437014350487103</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>34.701545386124</v>
+        <v>34.8194875</v>
       </c>
       <c r="H24">
-        <v>34.701545386124</v>
+        <v>69.638975</v>
       </c>
       <c r="I24">
-        <v>0.5199153838124234</v>
+        <v>0.5018594693098147</v>
       </c>
       <c r="J24">
-        <v>0.5199153838124234</v>
+        <v>0.4017864192541332</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>10.4870230256977</v>
+        <v>12.129045</v>
       </c>
       <c r="N24">
-        <v>10.4870230256977</v>
+        <v>36.387135</v>
       </c>
       <c r="O24">
-        <v>0.09561052460521154</v>
+        <v>0.1057454494708373</v>
       </c>
       <c r="P24">
-        <v>0.09561052460521154</v>
+        <v>0.1134007945935868</v>
       </c>
       <c r="Q24">
-        <v>363.9159054915762</v>
+        <v>422.3271307644375</v>
       </c>
       <c r="R24">
-        <v>363.9159054915762</v>
+        <v>2533.962784586625</v>
       </c>
       <c r="S24">
-        <v>0.04970938259662571</v>
+        <v>0.05306935515336226</v>
       </c>
       <c r="T24">
-        <v>0.04970938259662571</v>
+        <v>0.04556289920033069</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>34.701545386124</v>
+        <v>34.8194875</v>
       </c>
       <c r="H25">
-        <v>34.701545386124</v>
+        <v>69.638975</v>
       </c>
       <c r="I25">
-        <v>0.5199153838124234</v>
+        <v>0.5018594693098147</v>
       </c>
       <c r="J25">
-        <v>0.5199153838124234</v>
+        <v>0.4017864192541332</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>14.1757231483377</v>
+        <v>14.177359</v>
       </c>
       <c r="N25">
-        <v>14.1757231483377</v>
+        <v>42.532077</v>
       </c>
       <c r="O25">
-        <v>0.129240521695206</v>
+        <v>0.1236033999184949</v>
       </c>
       <c r="P25">
-        <v>0.129240521695206</v>
+        <v>0.1325515550349214</v>
       </c>
       <c r="Q25">
-        <v>491.9195002131694</v>
+        <v>493.6483744835126</v>
       </c>
       <c r="R25">
-        <v>491.9195002131694</v>
+        <v>2961.890246901075</v>
       </c>
       <c r="S25">
-        <v>0.06719413544128086</v>
+        <v>0.06203153668798466</v>
       </c>
       <c r="T25">
-        <v>0.06719413544128086</v>
+        <v>0.05325741466404826</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>34.701545386124</v>
+        <v>34.8194875</v>
       </c>
       <c r="H26">
-        <v>34.701545386124</v>
+        <v>69.638975</v>
       </c>
       <c r="I26">
-        <v>0.5199153838124234</v>
+        <v>0.5018594693098147</v>
       </c>
       <c r="J26">
-        <v>0.5199153838124234</v>
+        <v>0.4017864192541332</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>23.2068563485794</v>
+        <v>23.229232</v>
       </c>
       <c r="N26">
-        <v>23.2068563485794</v>
+        <v>46.458464</v>
       </c>
       <c r="O26">
-        <v>0.2115776521600459</v>
+        <v>0.2025209386808572</v>
       </c>
       <c r="P26">
-        <v>0.2115776521600459</v>
+        <v>0.1447881712368271</v>
       </c>
       <c r="Q26">
-        <v>805.313778849488</v>
+        <v>808.8299532586</v>
       </c>
       <c r="R26">
-        <v>805.313778849488</v>
+        <v>3235.3198130344</v>
       </c>
       <c r="S26">
-        <v>0.1100024762289217</v>
+        <v>0.1016370508105005</v>
       </c>
       <c r="T26">
-        <v>0.1100024762289217</v>
+        <v>0.05817392087159905</v>
       </c>
     </row>
   </sheetData>
